--- a/excel/dataFile.xlsx
+++ b/excel/dataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="19650" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,9 @@
   <si>
     <t>abc@gmail.com</t>
   </si>
+  <si>
+    <t>7060456197'</t>
+  </si>
 </sst>
 </file>
 
@@ -37,11 +40,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,23 +69,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,15 +97,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -111,30 +131,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,13 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +160,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -178,24 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,15 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,157 +482,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +971,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1002,8 +999,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>7060456197</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
